--- a/Ciclo II/Lanzamiento y Estrategia/Plantillas/PL_Bitacora_C2.xlsx
+++ b/Ciclo II/Lanzamiento y Estrategia/Plantillas/PL_Bitacora_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Ciclo II/Lanzamiento y Estrategia/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B302C9-F521-254E-A6D4-CEE1A7F6EE2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE633C-A699-8844-B19D-F85FE22293DD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="7960" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>METFOR</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>CICLO II</t>
+  </si>
+  <si>
+    <t>DURACIÓN      TAREA</t>
   </si>
 </sst>
 </file>
@@ -835,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,28 +849,28 @@
     <col min="1" max="1" width="11.5" style="2"/>
     <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.5" style="2"/>
-    <col min="5" max="7" width="18.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="2"/>
+    <col min="5" max="8" width="18.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
@@ -876,15 +879,16 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
@@ -894,8 +898,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -903,16 +908,18 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -926,22 +933,25 @@
         <v>21</v>
       </c>
       <c r="F14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -950,9 +960,10 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="27"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -961,9 +972,10 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="16"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -972,9 +984,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="16"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -983,9 +996,10 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="16"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -994,9 +1008,10 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="16"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1005,9 +1020,10 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="16"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1016,9 +1032,10 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="16"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1027,9 +1044,10 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="16"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1038,9 +1056,10 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="16"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1049,9 +1068,10 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="16"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1060,9 +1080,10 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="16"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1071,9 +1092,10 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="16"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1082,9 +1104,10 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="16"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1093,9 +1116,10 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="16"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1104,9 +1128,10 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="16"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1115,9 +1140,10 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="16"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1126,9 +1152,10 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="16"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1137,9 +1164,10 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="16"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1148,9 +1176,10 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="16"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1159,9 +1188,10 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="16"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1170,9 +1200,10 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="16"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1181,9 +1212,10 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="16"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1192,9 +1224,10 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="16"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1203,9 +1236,10 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="16"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1214,9 +1248,10 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="16"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1225,9 +1260,10 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="16"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1236,9 +1272,10 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="16"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1247,9 +1284,10 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="16"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1258,9 +1296,10 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="16"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1269,9 +1308,10 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="16"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1280,9 +1320,10 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="16"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1291,9 +1332,10 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="16"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1302,9 +1344,10 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="16"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1313,9 +1356,10 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="16"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1324,9 +1368,10 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="16"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1335,9 +1380,10 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="16"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1346,9 +1392,10 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="16"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1357,9 +1404,10 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="16"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1368,9 +1416,10 @@
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="16"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1379,9 +1428,10 @@
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="16"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1390,9 +1440,10 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="16"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1401,9 +1452,10 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="16"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1412,9 +1464,10 @@
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="16"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1423,9 +1476,10 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="16"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1434,19 +1488,21 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J14:J15"/>
+  <mergeCells count="10">
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
